--- a/biology/Zoologie/Dorete_Bloch/Dorete_Bloch.xlsx
+++ b/biology/Zoologie/Dorete_Bloch/Dorete_Bloch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorete Bloch (14 juin 1943 à Rungsted - 28 février 2015 à Tórshavn) est une zoologiste danoise, ancienne directrice de Náttúrugripasavnið (Musée d'histoire naturelle des îles Féroé), éditrice de Fróðskaparrit et autrice de nombreux livres sur les animaux et les plantes des îles Féroé.
 </t>
@@ -511,11 +523,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dorete Bloch née à Rungsted, étudie à l'école cathédrale de Viborg jusqu'en 1962, puis intègre l'université d'Aarhus. Après avoir obtenu une maîtrise en zoologie en 1970, elle travaille à la station de recherche sur la faune de l'université à Kalø, où elle mène des recherches sur les lièvres et les cygnes tuberculés[1].
-En 1974, elle déménage aux îles Féroé et est chargée de cours à l'Université des îles Féroé[2]. En 1980, elle est promue directrice du département de zoologie. Elle reçoit un D.Phil. de l'Université de Lund en 1994 pour sa thèse An introduction to studies of the ecology and status of the long-finned pilot whale (Globicephala melas) off the Faroe Islands, 1986-1988, Globicephala melas. En 2001, elle est nommée professeur de zoologie à l'Université des îles Féroé[3]. Ses recherches portent sur diverses espèces de la faune des îles Féroé, notamment des globicéphales noirs, des baleines à bec communes et des lièvres de montagne. Entre 2000 et 2004, elle participe à un projet utilisant des globicéphales noirs, marqués pour suivre leurs mouvements par satellite.
-De 1995 à 2009, elle est directrice du Musée d'histoire naturelle des Féroé. Elle est rédactrice en chef de Fróðskaparrit et consultante spécialiste des oiseaux pour l'aéroport de Vágar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dorete Bloch née à Rungsted, étudie à l'école cathédrale de Viborg jusqu'en 1962, puis intègre l'université d'Aarhus. Après avoir obtenu une maîtrise en zoologie en 1970, elle travaille à la station de recherche sur la faune de l'université à Kalø, où elle mène des recherches sur les lièvres et les cygnes tuberculés.
+En 1974, elle déménage aux îles Féroé et est chargée de cours à l'Université des îles Féroé. En 1980, elle est promue directrice du département de zoologie. Elle reçoit un D.Phil. de l'Université de Lund en 1994 pour sa thèse An introduction to studies of the ecology and status of the long-finned pilot whale (Globicephala melas) off the Faroe Islands, 1986-1988, Globicephala melas. En 2001, elle est nommée professeur de zoologie à l'Université des îles Féroé. Ses recherches portent sur diverses espèces de la faune des îles Féroé, notamment des globicéphales noirs, des baleines à bec communes et des lièvres de montagne. Entre 2000 et 2004, elle participe à un projet utilisant des globicéphales noirs, marqués pour suivre leurs mouvements par satellite.
+De 1995 à 2009, elle est directrice du Musée d'histoire naturelle des Féroé. Elle est rédactrice en chef de Fróðskaparrit et consultante spécialiste des oiseaux pour l'aéroport de Vágar.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorete Bloch épouse Ólávus Danielsen (1927–1997). Ils vivent à Velbastaður, dans la municipalité de Tórshavn et ont un fils, Jónas Bloch Danielsen, un musicien qui a fondé le Studio Bloch à Torshavn.
 Dorete Bloch meurt le 28 février 2015 à Tórshavn.
@@ -576,7 +592,9 @@
           <t>Publications choisies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bloch, D., Jákupsson, B. and Arnskov, S. 1980. Faroese flowers. Tórshavn: Føroya Fróðskaparfelag
 Bloch, D., Aldenius, J. and Lindell, T. 1982. List to K. Hansen: Vascular Plants in the Faroes. Fróðskaparrit 30: 119–121.
@@ -624,11 +642,13 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1969 - Médaille d'or de l'Université d'Aarhus
-1999 - Mentanarvirðisløn MA Jacobsen (Prix culturel MA Jacobsens) en littérature pour le livre Villini súgdjór í Útnorðri[2].
-2012 - Miðlaheiðurslønin (Faroe Media Prize) pour diffusion publique[4].</t>
+1999 - Mentanarvirðisløn MA Jacobsen (Prix culturel MA Jacobsens) en littérature pour le livre Villini súgdjór í Útnorðri.
+2012 - Miðlaheiðurslønin (Faroe Media Prize) pour diffusion publique.</t>
         </is>
       </c>
     </row>
